--- a/coder_financial_package.xlsx
+++ b/coder_financial_package.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Balance Sheet Full" sheetId="2" r:id="rId4"/>
+    <sheet name="Balance Sheet" sheetId="2" r:id="rId4"/>
     <sheet name="Income Statement" sheetId="3" r:id="rId6"/>
-    <sheet name="Income Statement Full" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Financial Row</t>
   </si>
@@ -64,36 +63,6 @@
     <t>-6.38%</t>
   </si>
   <si>
-    <t>Prepaid expenses</t>
-  </si>
-  <si>
-    <t>$1,396,603.84</t>
-  </si>
-  <si>
-    <t>$1,436,064.00</t>
-  </si>
-  <si>
-    <t>($39,460.16)</t>
-  </si>
-  <si>
-    <t>-2.75%</t>
-  </si>
-  <si>
-    <t>Total Current Assets</t>
-  </si>
-  <si>
-    <t>$28,086,600.03</t>
-  </si>
-  <si>
-    <t>$29,493,770.49</t>
-  </si>
-  <si>
-    <t>($1,407,170.46)</t>
-  </si>
-  <si>
-    <t>-4.77%</t>
-  </si>
-  <si>
     <t>Total Assets</t>
   </si>
   <si>
@@ -109,69 +78,6 @@
     <t>-4.68%</t>
   </si>
   <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
-    <t>$588,450.01</t>
-  </si>
-  <si>
-    <t>$333,741.90</t>
-  </si>
-  <si>
-    <t>$254,708.11</t>
-  </si>
-  <si>
-    <t>76.32%</t>
-  </si>
-  <si>
-    <t>Deferred revenue</t>
-  </si>
-  <si>
-    <t>$2,343,160.23</t>
-  </si>
-  <si>
-    <t>$2,281,494.61</t>
-  </si>
-  <si>
-    <t>$61,665.62</t>
-  </si>
-  <si>
-    <t>2.70%</t>
-  </si>
-  <si>
-    <t>Total Equity</t>
-  </si>
-  <si>
-    <t>$24,403,574.05</t>
-  </si>
-  <si>
-    <t>$26,254,039.93</t>
-  </si>
-  <si>
-    <t>($1,850,465.88)</t>
-  </si>
-  <si>
-    <t>-7.05%</t>
-  </si>
-  <si>
-    <t>Coder Technologies, Inc</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Coder Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Month-over-Month Income Statement</t>
-  </si>
-  <si>
-    <t>Jun 2025</t>
-  </si>
-  <si>
-    <t>Options: Activity Only</t>
-  </si>
-  <si>
     <t>Amount (Jun 2025)</t>
   </si>
   <si>
@@ -221,93 +127,6 @@
   </si>
   <si>
     <t>6.49%</t>
-  </si>
-  <si>
-    <t>Support Costs</t>
-  </si>
-  <si>
-    <t>$117,711.57</t>
-  </si>
-  <si>
-    <t>$114,002.68</t>
-  </si>
-  <si>
-    <t>$3,708.89</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>$1,223,682.10</t>
-  </si>
-  <si>
-    <t>$1,145,606.48</t>
-  </si>
-  <si>
-    <t>$78,075.62</t>
-  </si>
-  <si>
-    <t>6.82%</t>
-  </si>
-  <si>
-    <t>Salaries</t>
-  </si>
-  <si>
-    <t>$1,380,987.81</t>
-  </si>
-  <si>
-    <t>$1,326,380.04</t>
-  </si>
-  <si>
-    <t>$54,607.77</t>
-  </si>
-  <si>
-    <t>4.12%</t>
-  </si>
-  <si>
-    <t>Employee bonus</t>
-  </si>
-  <si>
-    <t>$166,176.21</t>
-  </si>
-  <si>
-    <t>$173,942.57</t>
-  </si>
-  <si>
-    <t>($7,766.36)</t>
-  </si>
-  <si>
-    <t>-4.46%</t>
-  </si>
-  <si>
-    <t>Contractor pay</t>
-  </si>
-  <si>
-    <t>$46,227.22</t>
-  </si>
-  <si>
-    <t>$84,545.92</t>
-  </si>
-  <si>
-    <t>($38,318.70)</t>
-  </si>
-  <si>
-    <t>-45.32%</t>
-  </si>
-  <si>
-    <t>Total Operating expenses</t>
-  </si>
-  <si>
-    <t>$3,224,657.83</t>
-  </si>
-  <si>
-    <t>$2,919,932.52</t>
-  </si>
-  <si>
-    <t>$304,725.31</t>
-  </si>
-  <si>
-    <t>10.44%</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -710,226 +529,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -941,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -955,172 +559,70 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/coder_financial_package.xlsx
+++ b/coder_financial_package.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Financial Row</t>
   </si>
@@ -63,6 +63,36 @@
     <t>-6.38%</t>
   </si>
   <si>
+    <t>Prepaid expenses</t>
+  </si>
+  <si>
+    <t>$1,396,603.84</t>
+  </si>
+  <si>
+    <t>$1,436,064.00</t>
+  </si>
+  <si>
+    <t>($39,460.16)</t>
+  </si>
+  <si>
+    <t>-2.75%</t>
+  </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>$28,086,600.03</t>
+  </si>
+  <si>
+    <t>$29,493,770.49</t>
+  </si>
+  <si>
+    <t>($1,407,170.46)</t>
+  </si>
+  <si>
+    <t>-4.77%</t>
+  </si>
+  <si>
     <t>Total Assets</t>
   </si>
   <si>
@@ -78,6 +108,51 @@
     <t>-4.68%</t>
   </si>
   <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>$588,450.01</t>
+  </si>
+  <si>
+    <t>$333,741.90</t>
+  </si>
+  <si>
+    <t>$254,708.11</t>
+  </si>
+  <si>
+    <t>76.32%</t>
+  </si>
+  <si>
+    <t>Deferred revenue</t>
+  </si>
+  <si>
+    <t>$2,343,160.23</t>
+  </si>
+  <si>
+    <t>$2,281,494.61</t>
+  </si>
+  <si>
+    <t>$61,665.62</t>
+  </si>
+  <si>
+    <t>2.70%</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>$24,403,574.05</t>
+  </si>
+  <si>
+    <t>$26,254,039.93</t>
+  </si>
+  <si>
+    <t>($1,850,465.88)</t>
+  </si>
+  <si>
+    <t>-7.05%</t>
+  </si>
+  <si>
     <t>Amount (Jun 2025)</t>
   </si>
   <si>
@@ -127,6 +202,51 @@
   </si>
   <si>
     <t>6.49%</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>$1,223,682.10</t>
+  </si>
+  <si>
+    <t>$1,145,606.48</t>
+  </si>
+  <si>
+    <t>$78,075.62</t>
+  </si>
+  <si>
+    <t>6.82%</t>
+  </si>
+  <si>
+    <t>Salaries</t>
+  </si>
+  <si>
+    <t>$1,380,987.81</t>
+  </si>
+  <si>
+    <t>$1,326,380.04</t>
+  </si>
+  <si>
+    <t>$54,607.77</t>
+  </si>
+  <si>
+    <t>4.12%</t>
+  </si>
+  <si>
+    <t>Total Operating expenses</t>
+  </si>
+  <si>
+    <t>$3,224,657.83</t>
+  </si>
+  <si>
+    <t>$2,919,932.52</t>
+  </si>
+  <si>
+    <t>$304,725.31</t>
+  </si>
+  <si>
+    <t>10.44%</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -529,6 +649,91 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -545,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -559,70 +764,121 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
